--- a/Multiknapsack/results/fixed_recourse/multicut/M20_N50_T0_a50_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M20_N50_T0_a50_ccg.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-214.86606520772074</v>
+        <v>-105.20922805100011</v>
       </c>
       <c r="C2">
-        <v>9.389484005</v>
+        <v>9.36610749</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H2">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-208.96556509060866</v>
+        <v>-100.25578091436573</v>
       </c>
       <c r="C3">
-        <v>0.069756096</v>
+        <v>1.417407134</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -512,16 +512,16 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H3">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-220.19797514944963</v>
+        <v>-103.67140171307204</v>
       </c>
       <c r="C4">
-        <v>0.073103646</v>
+        <v>1.508649313</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -541,16 +541,16 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H4">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-222.8214373416837</v>
+        <v>-103.09145004118963</v>
       </c>
       <c r="C5">
-        <v>0.055685779</v>
+        <v>1.509030697</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -570,16 +570,16 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H5">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-214.98729876470497</v>
+        <v>-102.05315976383038</v>
       </c>
       <c r="C6">
-        <v>0.091681729</v>
+        <v>1.338546347</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H6">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-215.90768387010934</v>
+        <v>-102.01057733765836</v>
       </c>
       <c r="C7">
-        <v>0.08393699</v>
+        <v>1.106352739</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H7">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-205.70438735399554</v>
+        <v>-97.44343294495316</v>
       </c>
       <c r="C8">
-        <v>0.089552856</v>
+        <v>0.993129861</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H8">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-214.18677486528318</v>
+        <v>-102.53029754612697</v>
       </c>
       <c r="C9">
-        <v>0.072239636</v>
+        <v>1.720042824</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H9">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-218.9791783602711</v>
+        <v>-102.29121933446089</v>
       </c>
       <c r="C10">
-        <v>0.063749458</v>
+        <v>1.269073295</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -715,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H10">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-208.42363263884084</v>
+        <v>-99.01915297564395</v>
       </c>
       <c r="C11">
-        <v>0.125197798</v>
+        <v>0.931378026</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -744,16 +744,16 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>272</v>
+        <v>4490</v>
       </c>
       <c r="H11">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.012061276411865234</v>
+        <v>0.013725472433715821</v>
       </c>
       <c r="E2">
-        <v>12.55763</v>
+        <v>52.47722</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-218.9791783602711</v>
+        <v>-102.29121933446089</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09487514189111497</v>
       </c>
       <c r="D3">
-        <v>0.018703117772094727</v>
+        <v>1.0940487608913574</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,10 +861,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.028908877228271485</v>
+        <v>0.011581720487304688</v>
       </c>
       <c r="E2">
-        <v>12.29901</v>
+        <v>49.97122</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-208.42363263884084</v>
+        <v>-99.01915297564395</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.054838965868286134</v>
+        <v>0.7937238566665039</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,10 +925,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.9701682531386718</v>
+        <v>0.8300394577015381</v>
       </c>
       <c r="E2">
-        <v>11.66395</v>
+        <v>49.3648</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-214.86606520772074</v>
+        <v>-105.20922805100011</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.017387750492357718</v>
       </c>
       <c r="D3">
-        <v>0.05417860737890625</v>
+        <v>1.1209461137015382</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,10 +989,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.009315927022827148</v>
+        <v>0.011858894009643555</v>
       </c>
       <c r="E2">
-        <v>14.32236</v>
+        <v>51.44005</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-208.96556509060866</v>
+        <v>-100.25578091436573</v>
       </c>
       <c r="C3">
-        <v>1.3601144962839496e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.030435373610595704</v>
+        <v>1.2577127725305175</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,10 +1053,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0224988042064209</v>
+        <v>0.022247979205322267</v>
       </c>
       <c r="E2">
-        <v>12.7341</v>
+        <v>48.49419</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-220.19797514944963</v>
+        <v>-103.67140171307204</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.015152812044189452</v>
+        <v>1.3519543067456055</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,10 +1117,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0095536832545166</v>
+        <v>0.027721889509155273</v>
       </c>
       <c r="E2">
-        <v>13.23726</v>
+        <v>51.58398</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-222.8214373416837</v>
+        <v>-103.09145004118963</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.01605482032067871</v>
+        <v>1.3256724619320068</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,10 +1181,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.011778964134277344</v>
+        <v>0.025909265294921876</v>
       </c>
       <c r="E2">
-        <v>10.46324</v>
+        <v>53.26468</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-214.98729876470497</v>
+        <v>-102.05315976383038</v>
       </c>
       <c r="C3">
-        <v>2.644036144804742e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.020323418240234377</v>
+        <v>1.1496742596733398</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,10 +1245,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.01841118743371582</v>
+        <v>0.03059385074194336</v>
       </c>
       <c r="E2">
-        <v>13.28807</v>
+        <v>52.09259</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-215.90768387010934</v>
+        <v>-102.01057733765836</v>
       </c>
       <c r="C3">
-        <v>1.3163824890775738e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.025664961735473633</v>
+        <v>0.9254119965684815</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,10 +1309,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.03637238716162109</v>
+        <v>0.03835181897802734</v>
       </c>
       <c r="E2">
-        <v>12.94089</v>
+        <v>46.78724</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-205.70438735399554</v>
+        <v>-97.44343294495316</v>
       </c>
       <c r="C3">
-        <v>1.3816773572981421e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.021169580033813477</v>
+        <v>0.8507319640587159</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,10 +1373,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.02434363871899414</v>
+        <v>0.04183498033972168</v>
       </c>
       <c r="E2">
-        <v>10.68899</v>
+        <v>52.74845</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-214.18677486528318</v>
+        <v>-102.53029754612697</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.016571614532470705</v>
+        <v>1.4942494058953857</v>
       </c>
       <c r="E3">
         <v>0.0</v>
